--- a/SetList/xlsx/cute.xlsx
+++ b/SetList/xlsx/cute.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B030B7-7272-1847-B24A-AF0381C52040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId4"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
   <si>
     <t>項番</t>
   </si>
@@ -25,26 +34,311 @@
     <t>メンバー</t>
   </si>
   <si>
-    <t>準備中</t>
+    <t>The Curtain Rises</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiss me 愛してる</t>
+    <rPh sb="8" eb="9">
+      <t>アイセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Middle Management〜女性中間管理職〜</t>
+    <rPh sb="22" eb="24">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都会っ子純情</t>
+    <rPh sb="0" eb="2">
+      <t>トカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わっきゃない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桃色スパークリング</t>
+    <rPh sb="0" eb="2">
+      <t>モモイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな愛でもてなして</t>
+    <rPh sb="0" eb="1">
+      <t>オオキナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心の叫びを歌にしてみた</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サケビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜チラリ</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンパスライフ〜生まれてきてよかった〜</t>
+    <rPh sb="9" eb="10">
+      <t>ウマレテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君は自転車　私は電車で帰宅</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジテn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ワタシ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デンセィア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Summer Wind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVERYDAY YEAH！片想い</t>
+    <rPh sb="14" eb="16">
+      <t>カタオモイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私立共学</t>
+    <rPh sb="0" eb="2">
+      <t>シリテゥ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕らの輝き</t>
+    <rPh sb="0" eb="1">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガヤキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHOCK！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まっさらブルージーンズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人生はSTEP！</t>
+    <rPh sb="0" eb="2">
+      <t>ジンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢幻クライマックス</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マボロセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crazy完全な大人</t>
+    <rPh sb="5" eb="7">
+      <t>カンゼn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOREVER LOVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>涙の色</t>
+    <rPh sb="0" eb="1">
+      <t>ナミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アダムとイブのジレンマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悲しきヘブン</t>
+    <rPh sb="0" eb="1">
+      <t>カナセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嵐を起こすんだExciting Fight！</t>
+    <rPh sb="0" eb="1">
+      <t>アラセィ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オコス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情熱エクスタシー</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウネテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超WONDERFUL！</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Danceでバコーン！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界一HAPPYな女の子</t>
+    <rPh sb="0" eb="3">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイアンハート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイナルスコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singing〜あの頃のように〜</t>
+    <rPh sb="10" eb="11">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHINES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To Tomorrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JUMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たどり着いた女戦士</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ツイタ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>オンナス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
+      <name val="Noto Sans JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,49 +380,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,7 +688,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -349,7 +707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -379,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -405,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -431,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -457,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -483,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -509,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -535,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -561,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,9 +958,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -619,7 +983,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -638,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,9 +1249,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -901,7 +1271,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -920,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,62 +1541,647 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>4</v>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>

--- a/SetList/xlsx/cute.xlsx
+++ b/SetList/xlsx/cute.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B030B7-7272-1847-B24A-AF0381C52040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E8104-601A-1A42-B631-FF22358C92EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId1"/>
+    <sheet name="17 ～Thank you team℃-ute～" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
